--- a/biology/Botanique/Morus_cathayana/Morus_cathayana.xlsx
+++ b/biology/Botanique/Morus_cathayana/Morus_cathayana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus cathayana est une espèce de plantes dicotylédones de la famille des Moraceae, originaire d'Extrême-Orient. Ce sont des arbres monoïques, de taille moyenne, à feuilles caduques.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus cathayana est un petit arbre ou arbuste à l'écorce lisse, blanc grisâtre, et à feuilles caduques. Les rameaux sont pubescents à l'état jeune, glabrescents, nettement lenticellés.
-Les feuilles sont munies de stipules lancéolées et portée par un pétiole de 2 à 5 cm de long. Le limbe foliaire, épais,  de consistance papyracée,  mesure de 8 à 20 cm de long sur 6 à 13 cm de large. Sa forme est ovale à plus ou moins orbiculaire, parfois lobée, cordée à tronquée et plus ou moins oblique à la base, et aiguë à peu acuminée à l'apex. Les bords du limbe sont serrés plus ou moins profondément[2].
+Les feuilles sont munies de stipules lancéolées et portée par un pétiole de 2 à 5 cm de long. Le limbe foliaire, épais,  de consistance papyracée,  mesure de 8 à 20 cm de long sur 6 à 13 cm de large. Sa forme est ovale à plus ou moins orbiculaire, parfois lobée, cordée à tronquée et plus ou moins oblique à la base, et aiguë à peu acuminée à l'apex. Les bords du limbe sont serrés plus ou moins profondément.
 Les inflorescences sont des chatons unisexués, mâles ou femelles (espèce monoïque). Les chatons mâles ont de  3 à 5 cm de long, les chatons femelles de 1 à 3 cm de long.
 Les fleurs mâles présentent un calice vert jaunâtre aux lobes étroitement ovales, pubescents sur leur face adaxiale, et 4 étamines.
-Les fleurs femelles ont un calice aux lobes obovales, pubescents, des styles courts, des stigmates bipartites[2].
+Les fleurs femelles ont un calice aux lobes obovales, pubescents, des styles courts, des stigmates bipartites.
 Le fruit est un syncarpe cylindrique, de 2 à 3 cm de long, de couleur blanche, rouge ou violet foncé à maturité.
-La floraison se produit en avril-mai, et la fructification en mai-juin[2].
+La floraison se produit en avril-mai, et la fructification en mai-juin.
 </t>
         </is>
       </c>
@@ -550,13 +564,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (28 juin 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (28 juin 2019) :
 Morus cathayana var. cathayana
 Morus rubra var. japonica Makino
-Morus tiliifolia Makino
-Liste des variétés
-Selon Tropicos                                           (28 juin 2019)[3] (Attention liste brute contenant possiblement des synonymes) :
+Morus tiliifolia Makino</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morus_cathayana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morus_cathayana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (28 juin 2019) (Attention liste brute contenant possiblement des synonymes) :
 Morus cathayana var. cathayana
 Morus cathayana var. gongshanensis (Z.Y. Cao) Z.Y. Cao
 Morus cathayana var. japonica (Makino) Koidz.
